--- a/AAII_Financials/Quarterly/LCID_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LCID_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
   <si>
     <t>LCID</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,98 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -769,16 +776,19 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>400</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -798,8 +808,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,16 +824,17 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>242400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>344200</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -840,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,37 +886,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,28 +963,29 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>600</v>
+        <v>500000</v>
       </c>
       <c r="E17" s="3">
+        <v>548200</v>
+      </c>
+      <c r="F17" s="3">
         <v>3100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -966,25 +993,28 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-499800</v>
       </c>
       <c r="E18" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
+        <v>-547700</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -995,8 +1025,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,25 +1041,26 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-24500</v>
       </c>
       <c r="E20" s="3">
-        <v>-868400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-60600</v>
-      </c>
-      <c r="G20" s="3">
-        <v>200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
+        <v>-460900</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1037,8 +1071,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1066,20 +1103,23 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1095,28 +1135,31 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-588800</v>
+        <v>-524400</v>
       </c>
       <c r="E23" s="3">
+        <v>-1009700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-871800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-63200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1124,8 +1167,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1136,16 +1182,16 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1153,8 +1199,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,28 +1231,31 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-588800</v>
+        <v>-524400</v>
       </c>
       <c r="E26" s="3">
+        <v>-1009700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-871800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-63300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1211,28 +1263,31 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-588800</v>
+        <v>-524400</v>
       </c>
       <c r="E27" s="3">
+        <v>-3177000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-871800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-63300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1240,8 +1295,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,25 +1423,28 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>24500</v>
       </c>
       <c r="E32" s="3">
-        <v>868400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>60600</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
+        <v>460900</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1385,28 +1455,31 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-588800</v>
+        <v>-524400</v>
       </c>
       <c r="E33" s="3">
+        <v>-3177000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-871800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-63300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1414,8 +1487,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,28 +1519,31 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-588800</v>
+        <v>-524400</v>
       </c>
       <c r="E35" s="3">
+        <v>-3177000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-871800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-63300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1472,42 +1551,48 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,142 +1618,155 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4796900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>27700</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>61200</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100600</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1677,55 +1776,61 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4986800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>2070300</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
         <v>2070300</v>
       </c>
       <c r="F47" s="3">
+        <v>2070300</v>
+      </c>
+      <c r="G47" s="3">
         <v>2070100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2070200</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1735,37 +1840,43 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>1109700</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,8 +1904,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,13 +1968,16 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>42700</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1865,23 +1985,26 @@
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,37 +2032,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6139200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2072000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2073200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2074600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2075500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,28 +2094,29 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1400</v>
       </c>
       <c r="F57" s="3">
         <v>1400</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -1993,100 +2124,112 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>232600</v>
       </c>
       <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>142300</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>269400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>143700</v>
       </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
       <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2109,25 +2252,28 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1019900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1672100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1084700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>72500</v>
       </c>
       <c r="G62" s="3">
         <v>72500</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>72500</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2138,8 +2284,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,37 +2380,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1294000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1674100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1086500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>216200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>72500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,28 +2554,31 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5020200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1672200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1083400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-63500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-200</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2412,8 +2586,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,28 +2682,31 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4845200</v>
+      </c>
+      <c r="E76" s="3">
         <v>397800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>986600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1858400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2003000</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2528,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,62 +2746,68 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-588800</v>
+        <v>-524400</v>
       </c>
       <c r="E81" s="3">
+        <v>-3177000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-871800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-63300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2620,8 +2815,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,8 +2831,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2662,8 +2861,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,28 +3021,31 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-741300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="F89" s="3">
-        <v>59900</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2836,8 +3053,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,8 +3069,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2878,8 +3099,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,8 +3163,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2947,12 +3177,12 @@
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3">
         <v>400</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2965,8 +3195,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,37 +3337,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>5235300</v>
       </c>
       <c r="E100" s="3">
         <v>1500</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>2075400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,33 +3401,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1100</v>
+        <v>4194700</v>
       </c>
       <c r="E102" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LCID_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LCID_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
   <si>
     <t>LCID</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,73 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -741,26 +744,29 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>151500</v>
+      </c>
+      <c r="E9" s="3">
         <v>3300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -779,20 +785,23 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-125100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-3100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -811,8 +820,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,20 +837,21 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>163600</v>
+      </c>
+      <c r="E12" s="3">
         <v>242400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>344200</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -857,8 +870,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,19 +905,22 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>2700</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -915,14 +934,17 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,8 +975,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,31 +989,32 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>512100</v>
+      </c>
+      <c r="E17" s="3">
         <v>500000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>548200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -996,20 +1022,23 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-485700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-499800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-547700</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1028,8 +1057,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,20 +1074,21 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-559900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-24500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-460900</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1074,13 +1107,16 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-1009200</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1106,8 +1142,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1115,14 +1154,14 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>1100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1138,31 +1177,34 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1045700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-524400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1009700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-871800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-63200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1170,8 +1212,11 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1185,16 +1230,16 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1202,8 +1247,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,31 +1282,34 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1045700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-524400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1009700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-871800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-63300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1266,31 +1317,34 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1045700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-524400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3177000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-871800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-63300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1298,8 +1352,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1387,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1422,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1457,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,20 +1492,23 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>559900</v>
+      </c>
+      <c r="E32" s="3">
         <v>24500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>460900</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1458,31 +1527,34 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1045700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-524400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3177000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-871800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-63300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1490,8 +1562,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,31 +1597,34 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1045700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-524400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3177000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-871800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-63300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1554,45 +1632,51 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1689,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,49 +1704,53 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6262900</v>
+      </c>
+      <c r="E41" s="3">
         <v>4796900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>500</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1677,23 +1766,26 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E43" s="3">
         <v>27700</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1709,23 +1801,26 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>127300</v>
+      </c>
+      <c r="E44" s="3">
         <v>61200</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,35 +1836,38 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>113700</v>
+      </c>
+      <c r="E45" s="3">
         <v>100600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1779,61 +1877,67 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6507000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4986800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
-        <v>2070300</v>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F47" s="3">
         <v>2070300</v>
       </c>
       <c r="G47" s="3">
+        <v>2070300</v>
+      </c>
+      <c r="H47" s="3">
         <v>2070100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2070200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1843,17 +1947,20 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1344100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1109700</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1869,14 +1976,17 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1907,8 +2017,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2052,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,40 +2087,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E52" s="3">
         <v>42700</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,40 +2157,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7881700</v>
+      </c>
+      <c r="E54" s="3">
         <v>6139200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2072000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2073200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2074600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2075500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2209,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,31 +2224,32 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E57" s="3">
         <v>8900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1400</v>
       </c>
       <c r="G57" s="3">
         <v>1400</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2127,113 +2257,125 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E58" s="3">
         <v>27900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>335300</v>
+      </c>
+      <c r="E59" s="3">
         <v>232600</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>142300</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>396100</v>
+      </c>
+      <c r="E60" s="3">
         <v>269400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>143700</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
       <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1992900</v>
+      </c>
+      <c r="E61" s="3">
         <v>4700</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2255,28 +2397,31 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1583400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1019900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1672100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1084700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>72500</v>
       </c>
       <c r="H62" s="3">
         <v>72500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>72500</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2287,8 +2432,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2467,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2502,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,40 +2537,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3972400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1294000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1674100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1086500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>216200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>72500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2589,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2622,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2657,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2692,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,31 +2727,34 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6065900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5020200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1672200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1083400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-63500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-200</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2589,8 +2762,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2797,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +2832,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,31 +2867,34 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3909400</v>
+      </c>
+      <c r="E76" s="3">
         <v>4845200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>397800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>986600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1858400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2003000</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2717,8 +2902,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,68 +2937,74 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1045700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-524400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3177000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-871800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-63300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2818,8 +3012,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,31 +3029,32 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>36300</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -2864,8 +3062,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3097,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3132,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3167,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3202,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,31 +3237,34 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-312700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-741300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3056,8 +3272,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,31 +3289,32 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-121900</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3102,8 +3322,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3357,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,13 +3392,16 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-121400</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
@@ -3180,12 +3409,12 @@
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
         <v>400</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3198,8 +3427,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3444,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3477,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3512,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3547,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,40 +3582,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1899600</v>
+      </c>
+      <c r="E100" s="3">
         <v>5235300</v>
-      </c>
-      <c r="E100" s="3">
-        <v>1500</v>
       </c>
       <c r="F100" s="3">
         <v>1500</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>2075400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3404,36 +3652,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1465500</v>
+      </c>
+      <c r="E102" s="3">
         <v>4194700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LCID_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LCID_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
   <si>
     <t>LCID</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,80 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E8" s="3">
         <v>26400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -747,29 +751,32 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>246000</v>
+      </c>
+      <c r="E9" s="3">
         <v>151500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -788,23 +795,26 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-188300</v>
+      </c>
+      <c r="E10" s="3">
         <v>-125100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-3100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -823,8 +833,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,23 +851,24 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>186100</v>
+      </c>
+      <c r="E12" s="3">
         <v>163600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>242400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>344200</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -873,8 +887,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,22 +925,25 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>2700</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -937,14 +957,17 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1001,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,34 +1016,35 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>655200</v>
+      </c>
+      <c r="E17" s="3">
         <v>512100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>548200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
@@ -1025,23 +1052,26 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-597500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-485700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-499800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-547700</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1060,8 +1090,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,23 +1108,24 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>516700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-559900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-24500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-460900</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1110,17 +1144,20 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1009200</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1145,8 +1182,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1157,14 +1197,14 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>1100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1180,34 +1220,37 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1045700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-524400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1009700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-871800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-63200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+      <c r="K23" s="3">
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
@@ -1215,13 +1258,16 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1233,16 +1279,16 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
@@ -1250,8 +1296,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,34 +1334,37 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1045700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-524400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1009700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-871800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-63300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
@@ -1320,34 +1372,37 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1045700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-524400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3177000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-871800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-63300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
@@ -1355,8 +1410,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,23 +1562,26 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-516700</v>
+      </c>
+      <c r="E32" s="3">
         <v>559900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>24500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>460900</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1530,34 +1600,37 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1045700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-524400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3177000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-871800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-63300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
@@ -1565,8 +1638,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,34 +1676,37 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1045700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-524400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3177000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-871800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-63300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
@@ -1635,48 +1714,54 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,55 +1791,59 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5391800</v>
+      </c>
+      <c r="E41" s="3">
         <v>6262900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4796900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>500</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1769,26 +1859,29 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
         <v>3100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>27700</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1804,26 +1897,29 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>333900</v>
+      </c>
+      <c r="E44" s="3">
         <v>127300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>61200</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1839,38 +1935,41 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>137800</v>
+      </c>
+      <c r="E45" s="3">
         <v>113700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>100600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,43 +1979,49 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5864400</v>
+      </c>
+      <c r="E46" s="3">
         <v>6507000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4986800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1926,21 +2031,21 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
-        <v>2070300</v>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G47" s="3">
         <v>2070300</v>
       </c>
       <c r="H47" s="3">
+        <v>2070300</v>
+      </c>
+      <c r="I47" s="3">
         <v>2070100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2070200</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1950,20 +2055,23 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1494200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1344100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1109700</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1979,14 +2087,17 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2131,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,43 +2207,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E52" s="3">
         <v>30600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>42700</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,43 +2283,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7401800</v>
+      </c>
+      <c r="E54" s="3">
         <v>7881700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6139200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2072000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2073200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2074600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2075500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,34 +2355,35 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E57" s="3">
         <v>41300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1400</v>
       </c>
       <c r="H57" s="3">
         <v>1400</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
@@ -2260,125 +2391,137 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E58" s="3">
         <v>19500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>27900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>436600</v>
+      </c>
+      <c r="E59" s="3">
         <v>335300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>232600</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>142300</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>511900</v>
+      </c>
+      <c r="E60" s="3">
         <v>396100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>269400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>143700</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1994100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1992900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4700</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2400,31 +2543,34 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1066300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1583400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1019900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1672100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1084700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>72500</v>
       </c>
       <c r="I62" s="3">
         <v>72500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>72500</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2435,8 +2581,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,43 +2695,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3572400</v>
+      </c>
+      <c r="E66" s="3">
         <v>3972400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1294000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1674100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1086500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>216200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>72500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2695,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,34 +2901,37 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6147200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6065900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5020200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1672200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1083400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-63500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-200</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
@@ -2765,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,34 +3053,37 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3829500</v>
+      </c>
+      <c r="E76" s="3">
         <v>3909400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4845200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>397800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>986600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1858400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2003000</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
@@ -2905,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,74 +3129,80 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1045700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-524400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3177000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-871800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-63300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
@@ -3015,8 +3210,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,17 +3228,18 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E83" s="3">
         <v>36300</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3255,8 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3065,8 +3264,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,34 +3454,37 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-494600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-312700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-741300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
@@ -3275,8 +3492,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,17 +3510,18 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-185100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-121900</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3316,8 +3537,8 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3325,8 +3546,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,29 +3622,32 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-185100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-121400</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3">
         <v>400</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3430,8 +3660,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,43 +3828,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-187300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1899600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5235300</v>
-      </c>
-      <c r="F100" s="3">
-        <v>1500</v>
       </c>
       <c r="G100" s="3">
         <v>1500</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>2075400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3655,39 +3904,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-867000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1465500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4194700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LCID_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LCID_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
   <si>
     <t>LCID</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,92 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>97300</v>
+      </c>
+      <c r="E8" s="3">
         <v>57700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>26400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
-        <v>500</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="H8" s="3">
+        <v>200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3600</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -754,37 +758,40 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>292300</v>
+      </c>
+      <c r="E9" s="3">
         <v>246000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>151500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+      <c r="J9" s="3">
+        <v>2500</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -798,31 +805,34 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-195000</v>
+      </c>
+      <c r="E10" s="3">
         <v>-188300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-125100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-3100</v>
       </c>
-      <c r="G10" s="3">
-        <v>400</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="H10" s="3">
+        <v>200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1100</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -836,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,31 +865,32 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>200400</v>
+      </c>
+      <c r="E12" s="3">
         <v>186100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>163600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>242400</v>
       </c>
-      <c r="G12" s="3">
-        <v>344200</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+      <c r="H12" s="3">
+        <v>176800</v>
+      </c>
+      <c r="I12" s="3">
+        <v>167400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>169500</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -890,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,23 +945,26 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>2700</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -960,14 +980,17 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,37 +1043,38 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>656500</v>
+      </c>
+      <c r="E17" s="3">
         <v>655200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>512100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500000</v>
       </c>
-      <c r="G17" s="3">
-        <v>548200</v>
-      </c>
       <c r="H17" s="3">
-        <v>3100</v>
+        <v>249100</v>
       </c>
       <c r="I17" s="3">
-        <v>2600</v>
+        <v>299100</v>
       </c>
       <c r="J17" s="3">
+        <v>203300</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
@@ -1055,31 +1082,34 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-559200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-597500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-485700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-499800</v>
       </c>
-      <c r="G18" s="3">
-        <v>-547700</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="H18" s="3">
+        <v>-248900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-298800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-199700</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1093,8 +1123,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,31 +1142,32 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>339000</v>
+      </c>
+      <c r="E20" s="3">
         <v>516700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-559900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-24500</v>
       </c>
-      <c r="G20" s="3">
-        <v>-460900</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-449100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-111400</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1147,31 +1181,34 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-177800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-42600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1009200</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="G21" s="3">
+        <v>-509400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-254800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-743000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-306400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1185,8 +1222,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1200,16 +1240,16 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>300</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1223,37 +1263,40 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-220400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-81000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1045700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-524400</v>
       </c>
-      <c r="G23" s="3">
-        <v>-1009700</v>
-      </c>
       <c r="H23" s="3">
-        <v>-871800</v>
+        <v>-261700</v>
       </c>
       <c r="I23" s="3">
-        <v>-63200</v>
+        <v>-747900</v>
       </c>
       <c r="J23" s="3">
+        <v>-311200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+      <c r="L23" s="3">
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
@@ -1261,17 +1304,20 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1282,16 +1328,16 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -1299,8 +1345,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,37 +1386,40 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-220400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-81300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1045700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-524400</v>
       </c>
-      <c r="G26" s="3">
-        <v>-1009700</v>
-      </c>
       <c r="H26" s="3">
-        <v>-871800</v>
+        <v>-261700</v>
       </c>
       <c r="I26" s="3">
-        <v>-63300</v>
+        <v>-748000</v>
       </c>
       <c r="J26" s="3">
+        <v>-311300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+      <c r="L26" s="3">
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
@@ -1375,37 +1427,40 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-220400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-81300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1045700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-524400</v>
       </c>
-      <c r="G27" s="3">
-        <v>-3177000</v>
-      </c>
       <c r="H27" s="3">
-        <v>-871800</v>
+        <v>-261700</v>
       </c>
       <c r="I27" s="3">
-        <v>-63300</v>
+        <v>-2915300</v>
       </c>
       <c r="J27" s="3">
+        <v>-297500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="L27" s="3">
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1468,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,31 +1632,34 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-339000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-516700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>559900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>24500</v>
       </c>
-      <c r="G32" s="3">
-        <v>460900</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>12700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>449100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>111400</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1603,37 +1673,40 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-220400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-81300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1045700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-524400</v>
       </c>
-      <c r="G33" s="3">
-        <v>-3177000</v>
-      </c>
       <c r="H33" s="3">
-        <v>-871800</v>
+        <v>-261700</v>
       </c>
       <c r="I33" s="3">
-        <v>-63300</v>
+        <v>-2915300</v>
       </c>
       <c r="J33" s="3">
+        <v>-297500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="3">
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
@@ -1641,8 +1714,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,37 +1755,40 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-220400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-81300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1045700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-524400</v>
       </c>
-      <c r="G35" s="3">
-        <v>-3177000</v>
-      </c>
       <c r="H35" s="3">
-        <v>-871800</v>
+        <v>-261700</v>
       </c>
       <c r="I35" s="3">
-        <v>-63300</v>
+        <v>-2915300</v>
       </c>
       <c r="J35" s="3">
+        <v>-297500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="L35" s="3">
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
@@ -1717,51 +1796,57 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,66 +1878,70 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3157400</v>
+      </c>
+      <c r="E41" s="3">
         <v>5391800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6262900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4796900</v>
       </c>
-      <c r="G41" s="3">
-        <v>1000</v>
-      </c>
       <c r="H41" s="3">
-        <v>2100</v>
+        <v>557900</v>
       </c>
       <c r="I41" s="3">
-        <v>3600</v>
-      </c>
-      <c r="J41" s="3">
+        <v>810000</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="3">
         <v>4200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="D42" s="3">
+        <v>1136600</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>500</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+      <c r="H42" s="3">
+        <v>500</v>
+      </c>
+      <c r="I42" s="3">
+        <v>500</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1862,34 +1952,37 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>27700</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>27900</v>
+      </c>
+      <c r="I43" s="3">
+        <v>600</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1900,34 +1993,37 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>553000</v>
+      </c>
+      <c r="E44" s="3">
         <v>333900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>127300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>61200</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+      <c r="H44" s="3">
+        <v>28200</v>
+      </c>
+      <c r="I44" s="3">
+        <v>6300</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1938,41 +2034,44 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>118100</v>
+      </c>
+      <c r="E45" s="3">
         <v>137800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>113700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>100600</v>
       </c>
-      <c r="G45" s="3">
-        <v>700</v>
-      </c>
       <c r="H45" s="3">
-        <v>800</v>
+        <v>67900</v>
       </c>
       <c r="I45" s="3">
-        <v>900</v>
-      </c>
-      <c r="J45" s="3">
+        <v>51200</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,51 +2081,57 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4966500</v>
+      </c>
+      <c r="E46" s="3">
         <v>5864400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6507000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4986800</v>
       </c>
-      <c r="G46" s="3">
-        <v>1700</v>
-      </c>
       <c r="H46" s="3">
-        <v>2900</v>
+        <v>682400</v>
       </c>
       <c r="I46" s="3">
-        <v>4500</v>
-      </c>
-      <c r="J46" s="3">
+        <v>868600</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" s="3">
         <v>5300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>278100</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -2034,21 +2139,21 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
-        <v>2070300</v>
-      </c>
-      <c r="H47" s="3">
-        <v>2070300</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2070100</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>2070200</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2058,28 +2163,31 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1813600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1494200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1344100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1109700</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>1014400</v>
+      </c>
+      <c r="I48" s="3">
+        <v>899900</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2090,14 +2198,17 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,46 +2327,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E52" s="3">
         <v>43200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>30600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>42700</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="H52" s="3">
+        <v>39300</v>
+      </c>
+      <c r="I52" s="3">
+        <v>31300</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,46 +2409,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7129400</v>
+      </c>
+      <c r="E54" s="3">
         <v>7401800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7881700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6139200</v>
       </c>
-      <c r="G54" s="3">
-        <v>2072000</v>
-      </c>
       <c r="H54" s="3">
-        <v>2073200</v>
+        <v>1736100</v>
       </c>
       <c r="I54" s="3">
-        <v>2074600</v>
-      </c>
-      <c r="J54" s="3">
+        <v>1799800</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K54" s="3">
         <v>2075500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,37 +2486,38 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>129100</v>
+      </c>
+      <c r="E57" s="3">
         <v>66400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>41300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8900</v>
       </c>
-      <c r="G57" s="3">
-        <v>800</v>
-      </c>
       <c r="H57" s="3">
-        <v>1400</v>
+        <v>14000</v>
       </c>
       <c r="I57" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>9200</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -2394,142 +2525,154 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E58" s="3">
         <v>8900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>19500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>27900</v>
       </c>
-      <c r="G58" s="3">
-        <v>1200</v>
-      </c>
       <c r="H58" s="3">
+        <v>10800</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3">
-        <v>300</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>517900</v>
+      </c>
+      <c r="E59" s="3">
         <v>436600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>335300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>232600</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
+        <v>175000</v>
+      </c>
+      <c r="I59" s="3">
+        <v>247300</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
-        <v>142300</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3">
-        <v>100</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>654100</v>
+      </c>
+      <c r="E60" s="3">
         <v>511900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>396100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>269400</v>
       </c>
-      <c r="G60" s="3">
-        <v>2100</v>
-      </c>
       <c r="H60" s="3">
-        <v>1800</v>
+        <v>199800</v>
       </c>
       <c r="I60" s="3">
-        <v>143700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0</v>
+        <v>259100</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1994600</v>
+      </c>
+      <c r="E61" s="3">
         <v>1994100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1992900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4700</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2546,35 +2689,38 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>770400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1066300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1583400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1019900</v>
       </c>
-      <c r="G62" s="3">
-        <v>1672100</v>
-      </c>
       <c r="H62" s="3">
-        <v>1084700</v>
+        <v>164800</v>
       </c>
       <c r="I62" s="3">
+        <v>1309500</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" s="3">
         <v>72500</v>
       </c>
-      <c r="J62" s="3">
-        <v>72500</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,46 +2853,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3419000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3572400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3972400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1294000</v>
       </c>
-      <c r="G66" s="3">
-        <v>1674100</v>
-      </c>
       <c r="H66" s="3">
-        <v>1086500</v>
+        <v>368500</v>
       </c>
       <c r="I66" s="3">
-        <v>216200</v>
-      </c>
-      <c r="J66" s="3">
+        <v>1572800</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K66" s="3">
         <v>72500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2846,10 +3014,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>5836800</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>4454800</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,37 +3075,40 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6367600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6147200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6065900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5020200</v>
       </c>
-      <c r="G72" s="3">
-        <v>-1672200</v>
-      </c>
       <c r="H72" s="3">
-        <v>-1083400</v>
+        <v>-4495800</v>
       </c>
       <c r="I72" s="3">
-        <v>-63500</v>
-      </c>
-      <c r="J72" s="3">
+        <v>-4234100</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72" s="3">
         <v>-200</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
+      <c r="L72" s="3">
+        <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,37 +3239,40 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3710400</v>
+      </c>
+      <c r="E76" s="3">
         <v>3829500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3909400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4845200</v>
       </c>
-      <c r="G76" s="3">
-        <v>397800</v>
-      </c>
       <c r="H76" s="3">
-        <v>986600</v>
+        <v>-4469200</v>
       </c>
       <c r="I76" s="3">
-        <v>1858400</v>
-      </c>
-      <c r="J76" s="3">
+        <v>-4227900</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K76" s="3">
         <v>2003000</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
+      <c r="L76" s="3">
+        <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,80 +3321,86 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-220400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-81300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1045700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-524400</v>
       </c>
-      <c r="G81" s="3">
-        <v>-3177000</v>
-      </c>
       <c r="H81" s="3">
-        <v>-871800</v>
+        <v>-261700</v>
       </c>
       <c r="I81" s="3">
-        <v>-63300</v>
+        <v>-2915300</v>
       </c>
       <c r="J81" s="3">
+        <v>-297500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="L81" s="3">
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
@@ -3213,8 +3408,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,37 +3427,38 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E83" s="3">
         <v>38200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>36300</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>14900</v>
+      </c>
+      <c r="H83" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>4800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3267,8 +3466,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,37 +3671,40 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-513600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-494600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-312700</v>
       </c>
-      <c r="F89" s="3">
-        <v>-741300</v>
-      </c>
       <c r="G89" s="3">
-        <v>-4100</v>
+        <v>-291600</v>
       </c>
       <c r="H89" s="3">
-        <v>-3000</v>
+        <v>-235100</v>
       </c>
       <c r="I89" s="3">
-        <v>-1100</v>
+        <v>-218700</v>
       </c>
       <c r="J89" s="3">
+        <v>-192800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -3495,8 +3712,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,37 +3731,38 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-309800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-185100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-121900</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>-92800</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-111800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-94800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-103700</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3549,8 +3770,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,31 +3852,34 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1729000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-185100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-121400</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>-92800</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-111700</v>
       </c>
       <c r="I94" s="3">
-        <v>400</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-94800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-103700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3663,8 +3893,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,46 +4074,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-187300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1899600</v>
       </c>
-      <c r="F100" s="3">
-        <v>5235300</v>
-      </c>
       <c r="G100" s="3">
-        <v>1500</v>
+        <v>4624700</v>
       </c>
       <c r="H100" s="3">
-        <v>1500</v>
+        <v>101000</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>511100</v>
       </c>
       <c r="J100" s="3">
+        <v>398000</v>
+      </c>
+      <c r="K100" s="3">
         <v>2075400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,42 +4156,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2238600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-867000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1465500</v>
       </c>
-      <c r="F102" s="3">
-        <v>4194700</v>
-      </c>
       <c r="G102" s="3">
-        <v>-2600</v>
+        <v>4240400</v>
       </c>
       <c r="H102" s="3">
-        <v>-1500</v>
+        <v>-245800</v>
       </c>
       <c r="I102" s="3">
-        <v>-600</v>
+        <v>197600</v>
       </c>
       <c r="J102" s="3">
+        <v>101500</v>
+      </c>
+      <c r="K102" s="3">
         <v>4000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LCID_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LCID_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,137 +665,144 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>195500</v>
+      </c>
+      <c r="E8" s="3">
         <v>97300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>57700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>26400</v>
-      </c>
-      <c r="G8" s="3">
-        <v>200</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
       </c>
       <c r="I8" s="3">
+        <v>200</v>
+      </c>
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3600</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>492500</v>
+      </c>
+      <c r="E9" s="3">
         <v>292300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>246000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>151500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3300</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2500</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -808,35 +815,38 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-297000</v>
+      </c>
+      <c r="E10" s="3">
         <v>-195000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-188300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-125100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>200</v>
       </c>
       <c r="I10" s="3">
         <v>200</v>
       </c>
       <c r="J10" s="3">
+        <v>200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -849,8 +859,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,35 +879,36 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>213800</v>
+      </c>
+      <c r="E12" s="3">
         <v>200400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>186100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>163600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>242400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>176800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>167400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>169500</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -907,8 +921,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,26 +965,29 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>2700</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -983,14 +1003,17 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,40 +1070,41 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>883000</v>
+      </c>
+      <c r="E17" s="3">
         <v>656500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>655200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>512100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>249100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>299100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>203300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="3">
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
@@ -1085,35 +1112,38 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-687500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-559200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-597500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-485700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-499800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-248900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-298800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-199700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1126,8 +1156,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,35 +1176,36 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>158400</v>
+      </c>
+      <c r="E20" s="3">
         <v>339000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>516700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-559900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-24500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-12700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-449100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-111400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,35 +1218,38 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-478400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-177800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-42600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1009200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-509400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-254800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-743000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-306400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1225,13 +1262,16 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1249,10 +1289,10 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1266,40 +1306,43 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-530000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-220400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-81000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1045700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-524400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-261700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-747900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-311200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
+      <c r="M23" s="3">
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
@@ -1307,8 +1350,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1316,11 +1362,11 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1331,16 +1377,16 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1348,8 +1394,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,40 +1438,43 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-530100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-220400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-81300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1045700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-524400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-261700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-748000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-311300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
+      <c r="M26" s="3">
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
@@ -1430,40 +1482,43 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-530100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-220400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-81300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1045700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-524400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-261700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2915300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-297500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3">
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
@@ -1471,8 +1526,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,35 +1702,38 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-158400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-339000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-516700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>559900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>24500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>12700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>449100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>111400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,40 +1746,43 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-530100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-220400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-81300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1045700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-524400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-261700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2915300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-297500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3">
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
@@ -1717,8 +1790,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,40 +1834,43 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-530100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-220400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-81300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1045700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-524400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-261700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2915300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-297500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3">
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
@@ -1799,54 +1878,60 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,63 +1965,67 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1264100</v>
+      </c>
+      <c r="E41" s="3">
         <v>3157400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5391800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6262900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4796900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>557900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>810000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3">
         <v>4200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2078000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1136600</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <v>500</v>
@@ -1943,8 +2033,8 @@
       <c r="I42" s="3">
         <v>500</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+      <c r="J42" s="3">
+        <v>500</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1955,38 +2045,41 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>27700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>27900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1996,38 +2089,41 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>685300</v>
+      </c>
+      <c r="E44" s="3">
         <v>553000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>333900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>127300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>61200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>28200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6300</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2037,44 +2133,47 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>126300</v>
+      </c>
+      <c r="E45" s="3">
         <v>118100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>137800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>113700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>67900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>51200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,58 +2183,64 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4156400</v>
+      </c>
+      <c r="E46" s="3">
         <v>4966500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5864400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6507000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4986800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>682400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>868600</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3">
         <v>5300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>513700</v>
+      </c>
+      <c r="E47" s="3">
         <v>278100</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2151,12 +2256,12 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>2070200</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2166,32 +2271,35 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2166200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1813600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1494200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1344100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1109700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1014400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>899900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2201,14 +2309,17 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2248,8 +2359,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,49 +2447,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E52" s="3">
         <v>71200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>43200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>30600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>42700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>39300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>31300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,49 +2535,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6887800</v>
+      </c>
+      <c r="E54" s="3">
         <v>7129400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7401800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7881700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6139200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1736100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1799800</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3">
         <v>2075500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,40 +2617,41 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>79800</v>
+      </c>
+      <c r="E57" s="3">
         <v>129100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>66400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>41300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>14000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
@@ -2528,155 +2659,167 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E58" s="3">
         <v>7100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>19500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>27900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2500</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>719800</v>
+      </c>
+      <c r="E59" s="3">
         <v>517900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>436600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>335300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>232600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>175000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>247300</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>825100</v>
+      </c>
+      <c r="E60" s="3">
         <v>654100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>511900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>396100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>269400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>199800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>259100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
+      <c r="K60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2069900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1994600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1994100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1992900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2692,38 +2835,41 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>761500</v>
+      </c>
+      <c r="E62" s="3">
         <v>770400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1066300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1583400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1019900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>164800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1309500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3">
         <v>72500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2879,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,49 +3011,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3656600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3419000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3572400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3972400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1294000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>368500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1572800</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3">
         <v>72500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3014,14 +3182,14 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>5836800</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>4454800</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3037,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,40 +3249,43 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6897700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6367600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6147200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6065900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5020200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4495800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4234100</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3">
         <v>-200</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
+      <c r="M72" s="3">
+        <v>0</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
@@ -3119,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,40 +3425,43 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3231200</v>
+      </c>
+      <c r="E76" s="3">
         <v>3710400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3829500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3909400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4845200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4469200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4227900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3">
         <v>2003000</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
+      <c r="M76" s="3">
+        <v>0</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
@@ -3283,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,86 +3513,92 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-530100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-220400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-81300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1045700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-524400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-261700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2915300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-297500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3">
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
@@ -3411,8 +3606,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,40 +3626,41 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E83" s="3">
         <v>42400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>38200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>36300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>14900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4800</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3469,8 +3668,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,40 +3888,43 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-569500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-513600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-494600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-312700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-291600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-235100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-218700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-192800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
@@ -3715,8 +3932,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,40 +3952,41 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-290100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-309800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-185100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-121900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-92800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-111800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-94800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-103700</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3773,8 +3994,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,35 +4082,38 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1374900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1729000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-185100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-121400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-92800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-111700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-94800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-103700</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3896,8 +4126,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,49 +4320,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E100" s="3">
         <v>4100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-187300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1899600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4624700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>101000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>511100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>398000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2075400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,45 +4408,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1926700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2238600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-867000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1465500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4240400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-245800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>197600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>101500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LCID_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LCID_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,147 +665,153 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>257700</v>
+      </c>
+      <c r="E8" s="3">
         <v>195500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>97300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>57700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>26400</v>
-      </c>
-      <c r="H8" s="3">
-        <v>200</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
       </c>
       <c r="J8" s="3">
+        <v>200</v>
+      </c>
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3600</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>615300</v>
+      </c>
+      <c r="E9" s="3">
         <v>492500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>292300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>246000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>151500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3300</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2500</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -818,38 +824,41 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-357600</v>
+      </c>
+      <c r="E10" s="3">
         <v>-297000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-195000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-188300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-125100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-3100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>200</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
       </c>
       <c r="K10" s="3">
+        <v>200</v>
+      </c>
+      <c r="L10" s="3">
         <v>1100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -862,8 +871,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,38 +892,39 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>221300</v>
+      </c>
+      <c r="E12" s="3">
         <v>213800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>200400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>186100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>163600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>242400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>176800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>167400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>169500</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,8 +937,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,29 +984,32 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>2700</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1006,14 +1025,17 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1078,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,43 +1096,44 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1007500</v>
+      </c>
+      <c r="E17" s="3">
         <v>883000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>656500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>655200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>512100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>249100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>299100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>203300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
+      <c r="N17" s="3">
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
@@ -1115,38 +1141,41 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-749800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-687500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-559200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-597500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-485700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-499800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-248900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-298800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-199700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1159,8 +1188,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,38 +1209,39 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>278200</v>
+      </c>
+      <c r="E20" s="3">
         <v>158400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>339000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>516700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-559900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-24500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-12700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-449100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-111400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1221,38 +1254,41 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-416300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-478400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-177800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-42600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1009200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-509400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-254800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-743000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-306400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,16 +1301,19 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1292,10 +1331,10 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1309,43 +1348,46 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-472800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-530000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-220400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-81000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1045700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-524400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-261700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-747900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-311200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
+      <c r="N23" s="3">
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
@@ -1353,23 +1395,26 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1380,16 +1425,16 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1397,8 +1442,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,43 +1489,46 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-472600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-530100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-220400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-81300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1045700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-524400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-261700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-748000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-311300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
+      <c r="N26" s="3">
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
@@ -1485,43 +1536,46 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1726900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-530100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-220400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-81300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1045700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-524400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-261700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2915300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-297500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
+      <c r="N27" s="3">
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
@@ -1529,8 +1583,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1630,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1677,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1724,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,38 +1771,41 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-278200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-158400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-339000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-516700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>559900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>24500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>12700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>449100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>111400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1749,43 +1818,46 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1726900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-530100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-220400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-81300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1045700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-524400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-261700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2915300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-297500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
+      <c r="N33" s="3">
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
@@ -1793,8 +1865,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,43 +1912,46 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1726900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-530100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-220400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-81300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1045700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-524400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-261700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2915300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-297500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
+      <c r="N35" s="3">
+        <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
@@ -1881,57 +1959,63 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2032,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,69 +2051,73 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1735800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1264100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3157400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5391800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6262900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4796900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>557900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>810000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3">
         <v>4200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2177200</v>
+      </c>
+      <c r="E42" s="3">
         <v>2078000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1136600</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>500</v>
@@ -2036,8 +2125,8 @@
       <c r="J42" s="3">
         <v>500</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
+      <c r="K42" s="3">
+        <v>500</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
@@ -2048,41 +2137,44 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E43" s="3">
         <v>2700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>27700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>27900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2092,41 +2184,44 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>834400</v>
+      </c>
+      <c r="E44" s="3">
         <v>685300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>553000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>333900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>127300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>61200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>28200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6300</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2136,47 +2231,50 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>145100</v>
+      </c>
+      <c r="E45" s="3">
         <v>126300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>118100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>137800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>113700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>67900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>51200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3">
         <v>1100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,64 +2284,70 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4912000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4156400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4966500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5864400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6507000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4986800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>682400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>868600</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3">
         <v>5300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>530000</v>
+      </c>
+      <c r="E47" s="3">
         <v>513700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>278100</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2259,12 +2363,12 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
         <v>2070200</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2274,35 +2378,38 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2381900</v>
+      </c>
+      <c r="E48" s="3">
         <v>2166200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1813600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1494200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1344100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1109700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1014400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>899900</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2312,14 +2419,17 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2362,8 +2472,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2519,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,52 +2566,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E52" s="3">
         <v>51500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>71200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>43200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>30600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>42700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>39300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>31300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,52 +2660,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7879200</v>
+      </c>
+      <c r="E54" s="3">
         <v>6887800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7129400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7401800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7881700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6139200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1736100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1799800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3">
         <v>2075500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2728,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,43 +2747,44 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>229100</v>
+      </c>
+      <c r="E57" s="3">
         <v>79800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>129100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>66400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>41300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>14000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
+      <c r="N57" s="3">
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
@@ -2662,167 +2792,179 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E58" s="3">
         <v>25500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>19500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>27900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>688300</v>
+      </c>
+      <c r="E59" s="3">
         <v>719800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>517900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>436600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>335300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>232600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>175000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>247300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>937600</v>
+      </c>
+      <c r="E60" s="3">
         <v>825100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>654100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>511900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>396100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>269400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>199800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>259100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3">
-        <v>0</v>
+      <c r="L60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2073200</v>
+      </c>
+      <c r="E61" s="3">
         <v>2069900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1994600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1994100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1992900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2838,41 +2980,44 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>518800</v>
+      </c>
+      <c r="E62" s="3">
         <v>761500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>770400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1066300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1583400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1019900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>164800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1309500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3">
         <v>72500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2882,8 +3027,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3074,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3121,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,52 +3168,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3529500</v>
+      </c>
+      <c r="E66" s="3">
         <v>3656600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3419000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3572400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3972400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1294000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>368500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1572800</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3">
         <v>72500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3236,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3281,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3328,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3185,14 +3352,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>5836800</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>4454800</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3208,8 +3375,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,43 +3422,46 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7370300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6897700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6367600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6147200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6065900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5020200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4495800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4234100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3">
         <v>-200</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
+      <c r="N72" s="3">
+        <v>0</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
@@ -3296,8 +3469,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3516,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3563,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,43 +3610,46 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4349700</v>
+      </c>
+      <c r="E76" s="3">
         <v>3231200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3710400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3829500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3909400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4845200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4469200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4227900</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3">
         <v>2003000</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
+      <c r="N76" s="3">
+        <v>0</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
@@ -3472,8 +3657,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,92 +3704,98 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1726900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-530100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-220400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-81300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1045700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-524400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-261700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2915300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-297500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
+      <c r="N81" s="3">
+        <v>0</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
@@ -3609,8 +3803,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,43 +3824,44 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E83" s="3">
         <v>50700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>42400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>38200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>36300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>14900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4800</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3671,8 +3869,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3916,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3963,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4010,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4057,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,43 +4104,46 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-648500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-569500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-513600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-494600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-312700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-291600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-235100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-218700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-192800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
@@ -3935,8 +4151,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,43 +4172,44 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-289900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-290100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-309800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-185100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-121900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-92800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-111800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-94800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-103700</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3997,8 +4217,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4264,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,38 +4311,41 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-392700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1374900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1729000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-185100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-121400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-92800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-111700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-94800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-103700</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4129,8 +4358,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4379,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4424,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4471,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4518,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,52 +4565,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1512800</v>
+      </c>
+      <c r="E100" s="3">
         <v>17600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-187300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1899600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4624700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>101000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>511100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>398000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2075400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,48 +4659,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>471600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1926700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2238600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-867000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1465500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4240400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-245800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>197600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>101500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LCID_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LCID_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,163 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>149400</v>
+      </c>
+      <c r="E8" s="3">
         <v>257700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>195500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>97300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>57700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>26400</v>
-      </c>
-      <c r="I8" s="3">
-        <v>200</v>
       </c>
       <c r="J8" s="3">
         <v>200</v>
       </c>
       <c r="K8" s="3">
+        <v>200</v>
+      </c>
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3600</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>500500</v>
+      </c>
+      <c r="E9" s="3">
         <v>615300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>492500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>292300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>246000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>151500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3300</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2500</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -827,41 +834,44 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-351100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-357600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-297000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-195000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-188300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-125100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-3100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>200</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
       </c>
       <c r="L10" s="3">
+        <v>200</v>
+      </c>
+      <c r="M10" s="3">
         <v>1100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -874,8 +884,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,41 +906,42 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>229800</v>
+      </c>
+      <c r="E12" s="3">
         <v>221300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>213800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>200400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>186100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>163600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>242400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>176800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>167400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>169500</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -940,8 +954,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,32 +1004,35 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>22500</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>2700</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1028,14 +1048,17 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,8 +1104,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,46 +1123,47 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>921600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1007500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>883000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>656500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>655200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>512100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>249100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>299100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>203300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
+      <c r="O17" s="3">
+        <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
@@ -1144,41 +1171,44 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-772200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-749800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-687500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-559200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-597500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-485700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-499800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-248900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-298800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-199700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,8 +1221,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,41 +1243,42 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>278200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>158400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>339000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>516700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-559900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-24500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-12700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-449100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-111400</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,41 +1291,44 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-728300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-416300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-478400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-177800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-42600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1009200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-509400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-254800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-743000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-306400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,19 +1341,22 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>900</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1334,10 +1374,10 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1351,46 +1391,49 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-779400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-472800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-530000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-220400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-81000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1045700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-524400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-261700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-747900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-311200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
+      <c r="O23" s="3">
+        <v>0</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
@@ -1398,26 +1441,29 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1428,16 +1474,16 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
@@ -1445,8 +1491,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,46 +1541,49 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-779500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-472600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-530100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-220400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-81300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1045700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-524400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-261700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-748000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-311300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
+      <c r="O26" s="3">
+        <v>0</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
@@ -1539,46 +1591,49 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-779500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1726900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-530100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-220400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-81300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1045700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-524400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-261700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2915300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-297500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
+      <c r="O27" s="3">
+        <v>0</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
@@ -1586,8 +1641,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,41 +1841,44 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-278200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-158400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-339000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-516700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>559900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>24500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>12700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>449100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>111400</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1821,46 +1891,49 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-779500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1726900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-530100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-220400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-81300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1045700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-524400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-261700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2915300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-297500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
+      <c r="O33" s="3">
+        <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
@@ -1868,8 +1941,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,46 +1991,49 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-779500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1726900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-530100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-220400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-81300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1045700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-524400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-261700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2915300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-297500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
+      <c r="O35" s="3">
+        <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
@@ -1962,60 +2041,66 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,75 +2138,79 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1735800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1264100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3157400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5391800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6262900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4796900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>557900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>810000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3">
         <v>4200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2078400</v>
+      </c>
+      <c r="E42" s="3">
         <v>2177200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2078000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1136600</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>500</v>
@@ -2128,8 +2218,8 @@
       <c r="K42" s="3">
         <v>500</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
+      <c r="L42" s="3">
+        <v>500</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
@@ -2140,44 +2230,47 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E43" s="3">
         <v>19500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>27700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>27900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,44 +2280,47 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1017600</v>
+      </c>
+      <c r="E44" s="3">
         <v>834400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>685300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>553000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>333900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>127300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>61200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>28200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6300</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2234,50 +2330,53 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>121300</v>
+      </c>
+      <c r="E45" s="3">
         <v>145100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>126300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>118100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>137800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>113700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>67900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>51200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3">
         <v>1100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,70 +2386,76 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4119800</v>
+      </c>
+      <c r="E46" s="3">
         <v>4912000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4156400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4966500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5864400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6507000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4986800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>682400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>868600</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3">
         <v>5300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>441700</v>
+      </c>
+      <c r="E47" s="3">
         <v>530000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>513700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>278100</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,12 +2471,12 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
         <v>2070200</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2381,38 +2486,41 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2536100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2381900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2166200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1813600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1494200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1344100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1109700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1014400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>899900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2422,14 +2530,17 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2475,8 +2586,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,55 +2686,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>163300</v>
+      </c>
+      <c r="E52" s="3">
         <v>55300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>51500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>71200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>43200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>30600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>42700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>39300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>31300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,55 +2786,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7260900</v>
+      </c>
+      <c r="E54" s="3">
         <v>7879200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6887800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7129400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7401800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7881700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6139200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1736100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1799800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3">
         <v>2075500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,46 +2878,47 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>145700</v>
+      </c>
+      <c r="E57" s="3">
         <v>229100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>79800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>129100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>66400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>41300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
+      <c r="O57" s="3">
+        <v>0</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
@@ -2795,179 +2926,191 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E58" s="3">
         <v>20200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>25500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>19500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>27900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2500</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>849400</v>
+      </c>
+      <c r="E59" s="3">
         <v>688300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>719800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>517900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>436600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>335300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>232600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>175000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>247300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1015000</v>
+      </c>
+      <c r="E60" s="3">
         <v>937600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>825100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>654100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>511900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>396100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>269400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>199800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>259100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3">
-        <v>0</v>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2072000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2073200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2069900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1994600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1994100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1992900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2983,44 +3126,47 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>542200</v>
+      </c>
+      <c r="E62" s="3">
         <v>518800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>761500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>770400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1066300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1583400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1019900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>164800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1309500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3">
         <v>72500</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3176,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,55 +3326,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3629100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3529500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3656600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3419000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3572400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3972400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1294000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>368500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1572800</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3">
         <v>72500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3355,14 +3523,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>5836800</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>4454800</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3378,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,46 +3596,49 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8149900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7370300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6897700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6367600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6147200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6065900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5020200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4495800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4234100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3">
         <v>-200</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
+      <c r="O72" s="3">
+        <v>0</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
@@ -3472,8 +3646,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,46 +3796,49 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3631900</v>
+      </c>
+      <c r="E76" s="3">
         <v>4349700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3231200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3710400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3829500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3909400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4845200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4469200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4227900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3">
         <v>2003000</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
+      <c r="O76" s="3">
+        <v>0</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
@@ -3660,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,98 +3896,104 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-779500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1726900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-530100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-220400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-81300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1045700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-524400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-261700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2915300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-297500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
+      <c r="O81" s="3">
+        <v>0</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
@@ -3806,8 +4001,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,46 +4023,47 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E83" s="3">
         <v>55200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>50700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>42400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>38200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>36300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>14900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4800</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -3872,8 +4071,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,46 +4321,49 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-801300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-648500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-569500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-513600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-494600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-312700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-291600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-235100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-218700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-192800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
@@ -4154,8 +4371,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,46 +4393,47 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-241800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-289900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-290100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-309800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-185100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-121900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-92800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-111800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-94800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-103700</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4220,8 +4441,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,41 +4541,44 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-392700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1374900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1729000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-185100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-121400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-92800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-111700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-94800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-103700</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4361,8 +4591,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,55 +4811,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E100" s="3">
         <v>1512800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>17600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-187300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1899600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4624700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>101000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>511100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>398000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2075400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4662,51 +4911,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-835700</v>
+      </c>
+      <c r="E102" s="3">
         <v>471600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1926700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2238600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-867000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1465500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4240400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-245800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>197600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>101500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LCID_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LCID_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,173 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>150900</v>
+      </c>
+      <c r="E8" s="3">
         <v>149400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>257700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>195500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>97300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>57700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>26400</v>
-      </c>
-      <c r="J8" s="3">
-        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
       </c>
       <c r="L8" s="3">
+        <v>200</v>
+      </c>
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3600</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>555800</v>
+      </c>
+      <c r="E9" s="3">
         <v>500500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>615300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>492500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>292300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>246000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>151500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3300</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2500</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,44 +844,47 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-404900</v>
+      </c>
+      <c r="E10" s="3">
         <v>-351100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-357600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-297000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-195000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-188300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-125100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-3100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>200</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
       </c>
       <c r="M10" s="3">
+        <v>200</v>
+      </c>
+      <c r="N10" s="3">
         <v>1100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -887,8 +897,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,44 +920,45 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>233500</v>
+      </c>
+      <c r="E12" s="3">
         <v>229800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>221300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>213800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>200400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>186100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>163600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>242400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>176800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>167400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>169500</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -957,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,35 +1024,38 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="3">
         <v>22500</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>2700</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1051,14 +1071,17 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,49 +1150,50 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>988600</v>
+      </c>
+      <c r="E17" s="3">
         <v>921600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1007500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>883000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>656500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>655200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>512100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>249100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>299100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>203300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
+      <c r="P17" s="3">
+        <v>0</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
@@ -1174,44 +1201,47 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-837700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-772200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-749800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-687500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-559200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-597500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-485700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-499800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-248900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-298800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-199700</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1254,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,44 +1277,45 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>75200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>278200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>158400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>339000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>516700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-559900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-24500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-449100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-111400</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1294,44 +1328,47 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-707100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-728300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-416300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-478400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-177800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-42600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1009200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-509400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-254800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-743000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-306400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1344,8 +1381,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,13 +1393,13 @@
         <v>1200</v>
       </c>
       <c r="E22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>900</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1377,10 +1417,10 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1394,49 +1434,52 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-763600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-779400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-472800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-530000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-220400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-81000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1045700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-524400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-261700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-747900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-311200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
+      <c r="P23" s="3">
+        <v>0</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
@@ -1444,29 +1487,32 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1477,16 +1523,16 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
@@ -1494,8 +1540,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,49 +1593,52 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-764200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-779500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-472600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-530100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-220400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-81300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1045700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-524400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-261700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-748000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-311300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
+      <c r="P26" s="3">
+        <v>0</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
@@ -1594,49 +1646,52 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-764200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-779500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1726900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-530100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-220400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-81300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1045700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-524400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-261700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2915300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-297500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
+      <c r="P27" s="3">
+        <v>0</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
@@ -1644,8 +1699,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,44 +1911,47 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-75200</v>
+      </c>
+      <c r="E32" s="3">
         <v>6000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-278200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-158400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-339000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-516700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>559900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>24500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>449100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>111400</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1894,49 +1964,52 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-764200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-779500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1726900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-530100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-220400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-81300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1045700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-524400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-261700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2915300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-297500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
+      <c r="P33" s="3">
+        <v>0</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
@@ -1944,8 +2017,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,49 +2070,52 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-764200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-779500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1726900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-530100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-220400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-81300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1045700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-524400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-261700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2915300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-297500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
+      <c r="P35" s="3">
+        <v>0</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
@@ -2044,63 +2123,69 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,81 +2225,85 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2775300</v>
+      </c>
+      <c r="E41" s="3">
         <v>900000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1735800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1264100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3157400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5391800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6262900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4796900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>557900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>810000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3">
         <v>4200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2474000</v>
+      </c>
+      <c r="E42" s="3">
         <v>2078400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2177200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2078000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1136600</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3">
         <v>500</v>
@@ -2221,8 +2311,8 @@
       <c r="L42" s="3">
         <v>500</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
+      <c r="M42" s="3">
+        <v>500</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
@@ -2233,47 +2323,50 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E43" s="3">
         <v>2600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>19500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>27700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>27900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2283,47 +2376,50 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>849800</v>
+      </c>
+      <c r="E44" s="3">
         <v>1017600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>834400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>685300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>553000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>333900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>127300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>61200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>28200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6300</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,53 +2429,56 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>137300</v>
+      </c>
+      <c r="E45" s="3">
         <v>121300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>145100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>126300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>118100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>137800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>113700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>67900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>51200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3">
         <v>1100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2389,76 +2488,82 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6256900</v>
+      </c>
+      <c r="E46" s="3">
         <v>4119800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4912000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4156400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4966500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5864400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6507000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4986800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>682400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>868600</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3">
         <v>5300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>288100</v>
+      </c>
+      <c r="E47" s="3">
         <v>441700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>530000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>513700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>278100</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2474,12 +2579,12 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3">
         <v>2070200</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2489,41 +2594,44 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2698500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2536100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2381900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2166200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1813600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1494200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1344100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1109700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1014400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>899900</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2533,14 +2641,17 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,58 +2806,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>171600</v>
+      </c>
+      <c r="E52" s="3">
         <v>163300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>55300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>51500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>71200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>43200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>30600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>42700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>39300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>31300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,58 +2912,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9415100</v>
+      </c>
+      <c r="E54" s="3">
         <v>7260900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7879200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6887800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7129400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7401800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7881700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6139200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1736100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1799800</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3">
         <v>2075500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,49 +3009,50 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>140100</v>
+      </c>
+      <c r="E57" s="3">
         <v>145700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>229100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>79800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>129100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>66400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>41300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
+      <c r="P57" s="3">
+        <v>0</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
@@ -2929,191 +3060,203 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E58" s="3">
         <v>19800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>20200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>25500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>19500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>27900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2500</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>722000</v>
+      </c>
+      <c r="E59" s="3">
         <v>849400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>688300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>719800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>517900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>436600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>335300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>232600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>175000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>247300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>885600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1015000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>937600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>825100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>654100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>511900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>396100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>269400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>199800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>259100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3">
-        <v>0</v>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2073500</v>
+      </c>
+      <c r="E61" s="3">
         <v>2072000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2073200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2069900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1994600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1994100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1992900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3129,47 +3272,50 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>496100</v>
+      </c>
+      <c r="E62" s="3">
         <v>542200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>518800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>761500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>770400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1066300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1583400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1019900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>164800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1309500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3">
         <v>72500</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,58 +3484,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3455200</v>
+      </c>
+      <c r="E66" s="3">
         <v>3629100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3529500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3656600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3419000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3572400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3972400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1294000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>368500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1572800</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3">
         <v>72500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3526,14 +3694,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>5836800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>4454800</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,49 +3770,52 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8914100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8149900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7370300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6897700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6367600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6147200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6065900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5020200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4495800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4234100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3">
         <v>-200</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
+      <c r="P72" s="3">
+        <v>0</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
@@ -3649,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,49 +3982,52 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5959800</v>
+      </c>
+      <c r="E76" s="3">
         <v>3631900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4349700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3231200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3710400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3829500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3909400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4845200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4469200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4227900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3">
         <v>2003000</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
+      <c r="P76" s="3">
+        <v>0</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,104 +4088,110 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-764200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-779500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1726900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-530100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-220400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-81300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1045700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-524400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-261700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2915300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-297500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
+      <c r="P81" s="3">
+        <v>0</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
@@ -4004,8 +4199,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,49 +4222,50 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E83" s="3">
         <v>49800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>55200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>50700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>42400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>38200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>36300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>14900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4800</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4074,8 +4273,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,49 +4538,52 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-801300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-648500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-569500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-513600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-494600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-312700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-291600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-235100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-218700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-192800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
@@ -4374,8 +4591,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,49 +4614,50 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-203700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-241800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-289900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-290100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-309800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-185100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-121900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-92800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-111800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-94800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-103700</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4444,8 +4665,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,44 +4771,47 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-438000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-28700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-392700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1374900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1729000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-185100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-121400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-92800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-111700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-94800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-103700</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4824,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,58 +5057,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3013600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1512800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>17600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-187300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1899600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4624700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>101000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>511100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>398000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2075400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,54 +5163,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1875300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-835700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>471600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1926700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2238600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-867000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1465500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4240400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-245800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>197600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>101500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LCID_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LCID_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,176 +665,183 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>137800</v>
+      </c>
+      <c r="E8" s="3">
         <v>150900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>149400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>257700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>195500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>97300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>57700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>26400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>200</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
       </c>
       <c r="M8" s="3">
+        <v>200</v>
+      </c>
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3600</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>469700</v>
+      </c>
+      <c r="E9" s="3">
         <v>555800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>500500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>615300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>492500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>292300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>246000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>151500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3300</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2500</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -847,47 +854,50 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-331900</v>
+      </c>
+      <c r="E10" s="3">
         <v>-404900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-351100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-357600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-297000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-195000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-188300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-125100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-3100</v>
-      </c>
-      <c r="L10" s="3">
-        <v>200</v>
       </c>
       <c r="M10" s="3">
         <v>200</v>
       </c>
       <c r="N10" s="3">
+        <v>200</v>
+      </c>
+      <c r="O10" s="3">
         <v>1100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -900,8 +910,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,47 +934,48 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>230800</v>
+      </c>
+      <c r="E12" s="3">
         <v>233500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>229800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>221300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>213800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>200400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>186100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>163600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>242400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>176800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>167400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>169500</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -974,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,38 +1044,41 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
         <v>1500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>22500</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>2700</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1074,14 +1094,17 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,52 +1177,53 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>890700</v>
+      </c>
+      <c r="E17" s="3">
         <v>988600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>921600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1007500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>883000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>656500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>655200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>512100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>249100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>299100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>203300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
+      <c r="Q17" s="3">
+        <v>0</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
@@ -1204,47 +1231,50 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-752900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-837700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-772200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-749800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-687500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-559200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-597500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-485700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-499800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-248900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-298800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-199700</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,8 +1287,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,47 +1311,48 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>123500</v>
+      </c>
+      <c r="E20" s="3">
         <v>75200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>278200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>158400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>339000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>516700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-559900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-24500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-449100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-111400</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1331,47 +1365,50 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-568600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-707100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-728300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-416300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-478400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-177800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-42600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1009200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-509400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-254800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-743000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-306400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,8 +1421,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,13 +1436,13 @@
         <v>1200</v>
       </c>
       <c r="F22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1420,10 +1460,10 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
@@ -1437,52 +1477,55 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-630600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-763600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-779400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-472800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-530000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-220400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-81000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1045700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-524400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-261700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-747900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-311200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
+      <c r="Q23" s="3">
+        <v>0</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
@@ -1490,32 +1533,35 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1526,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
@@ -1543,8 +1589,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,52 +1645,55 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-630900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-764200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-779500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-472600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-530100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-220400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-81300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1045700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-524400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-261700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-748000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-311300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
+      <c r="Q26" s="3">
+        <v>0</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
@@ -1649,52 +1701,55 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-630900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-764200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-779500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1726900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-530100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-220400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-81300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1045700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-524400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-261700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2915300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-297500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
+      <c r="Q27" s="3">
+        <v>0</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
@@ -1702,8 +1757,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,47 +1981,50 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-123500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-75200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-278200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-158400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-339000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-516700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>559900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>24500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>449100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>111400</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1967,52 +2037,55 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-630900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-764200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-779500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1726900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-530100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-220400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-81300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1045700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-524400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-261700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2915300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-297500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
+      <c r="Q33" s="3">
+        <v>0</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
@@ -2020,8 +2093,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,52 +2149,55 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-630900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-764200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-779500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1726900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-530100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-220400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-81300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1045700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-524400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-261700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2915300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-297500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
+      <c r="Q35" s="3">
+        <v>0</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
@@ -2126,66 +2205,72 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,87 +2312,91 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1164400</v>
+      </c>
+      <c r="E41" s="3">
         <v>2775300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>900000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1735800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1264100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3157400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5391800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6262900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4796900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>557900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>810000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3">
         <v>4200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3258200</v>
+      </c>
+      <c r="E42" s="3">
         <v>2474000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2078400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2177200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2078000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1136600</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L42" s="3">
         <v>500</v>
@@ -2314,8 +2404,8 @@
       <c r="M42" s="3">
         <v>500</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
+      <c r="N42" s="3">
+        <v>500</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
@@ -2326,50 +2416,53 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E43" s="3">
         <v>20600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>19500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>27700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>27900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2379,50 +2472,53 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>799000</v>
+      </c>
+      <c r="E44" s="3">
         <v>849800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1017600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>834400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>685300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>553000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>333900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>127300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>61200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>28200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6300</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2432,56 +2528,59 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>146600</v>
+      </c>
+      <c r="E45" s="3">
         <v>137300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>121300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>145100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>126300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>118100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>137800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>113700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>67900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>51200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3">
         <v>1100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,82 +2590,88 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5391500</v>
+      </c>
+      <c r="E46" s="3">
         <v>6256900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4119800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4912000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4156400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4966500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5864400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6507000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4986800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>682400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>868600</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3">
         <v>5300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>479700</v>
+      </c>
+      <c r="E47" s="3">
         <v>288100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>441700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>530000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>513700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>278100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,12 +2687,12 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3">
         <v>2070200</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2597,44 +2702,47 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2894700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2698500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2536100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2381900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2166200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1813600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1494200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1344100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1109700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1014400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>899900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2644,14 +2752,17 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,61 +2926,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>175300</v>
+      </c>
+      <c r="E52" s="3">
         <v>171600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>163300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>55300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>51500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>71200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>43200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>30600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>42700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>39300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>31300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>200</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,61 +3038,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8941200</v>
+      </c>
+      <c r="E54" s="3">
         <v>9415100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7260900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7879200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6887800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7129400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7401800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7881700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6139200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1736100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1799800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3">
         <v>2075500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,52 +3140,53 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>104600</v>
+      </c>
+      <c r="E57" s="3">
         <v>140100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>145700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>229100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>79800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>129100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>66400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>41300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
@@ -3063,203 +3194,215 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>61500</v>
+      </c>
+      <c r="E58" s="3">
         <v>23500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>19800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>20200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>25500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>19500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>27900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2500</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>871800</v>
+      </c>
+      <c r="E59" s="3">
         <v>722000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>849400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>688300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>719800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>517900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>436600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>335300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>232600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>175000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>247300</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1037900</v>
+      </c>
+      <c r="E60" s="3">
         <v>885600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1015000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>937600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>825100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>654100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>511900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>396100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>269400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>199800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>259100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3">
-        <v>0</v>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2072700</v>
+      </c>
+      <c r="E61" s="3">
         <v>2073500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2072000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2073200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2069900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1994600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1994100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1992900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3275,50 +3418,53 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>424700</v>
+      </c>
+      <c r="E62" s="3">
         <v>496100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>542200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>518800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>761500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>770400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1066300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1583400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1019900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>164800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1309500</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3">
         <v>72500</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3328,8 +3474,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,61 +3642,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3535200</v>
+      </c>
+      <c r="E66" s="3">
         <v>3455200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3629100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3529500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3656600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3419000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3572400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3972400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1294000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>368500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1572800</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3">
         <v>72500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3697,14 +3865,14 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>5836800</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>4454800</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,52 +3944,55 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9545000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8914100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8149900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7370300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6897700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6367600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6147200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6065900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5020200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4495800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4234100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3">
         <v>-200</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
+      <c r="Q72" s="3">
+        <v>0</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
@@ -3826,8 +4000,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,52 +4168,55 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5406000</v>
+      </c>
+      <c r="E76" s="3">
         <v>5959800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3631900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4349700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3231200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3710400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3829500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3909400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4845200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4469200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4227900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3">
         <v>2003000</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
+      <c r="Q76" s="3">
+        <v>0</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
@@ -4038,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,110 +4280,116 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-630900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-764200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-779500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1726900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-530100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-220400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-81300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1045700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-524400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-261700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2915300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-297500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
+      <c r="Q81" s="3">
+        <v>0</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
@@ -4202,8 +4397,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,52 +4421,53 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E83" s="3">
         <v>55400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>49800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>55200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>50700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>42400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>38200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>36300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>14900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4800</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4276,8 +4475,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,52 +4755,55 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-513600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-801300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-648500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-569500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-513600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-494600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-312700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-291600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-235100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-218700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-192800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1400</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
@@ -4594,8 +4811,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,52 +4835,53 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-192500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-203700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-241800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-289900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-290100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-309800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-185100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-121900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-92800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-111800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-94800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-103700</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4668,8 +4889,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,47 +5001,50 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1132400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-438000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-28700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-392700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1374900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1729000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-185100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-121400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-92800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-111700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-94800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-103700</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4827,8 +5057,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,61 +5303,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E100" s="3">
         <v>3013600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1512800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>17600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-187300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1899600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4624700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>101000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>511100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>398000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2075400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5166,57 +5415,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1610900</v>
+      </c>
+      <c r="E102" s="3">
         <v>1875300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-835700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>471600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1926700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2238600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-867000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1465500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4240400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-245800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>197600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>101500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
